--- a/model/Units.xlsx
+++ b/model/Units.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73555DB7-2EEC-4F73-AB24-D92C388AA648}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="14810" windowHeight="8080"/>
+    <workbookView xWindow="240" yWindow="40" windowWidth="14810" windowHeight="8080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -77,12 +78,21 @@
   </si>
   <si>
     <t>T114</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>Reactor</t>
+  </si>
+  <si>
+    <t>R101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,6 +699,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>601</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
